--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Bmp2-Acvr2a.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Bmp2-Acvr2a.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -88,16 +88,16 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Bmp2</t>
+  </si>
+  <si>
+    <t>Acvr2a</t>
+  </si>
+  <si>
     <t>Neutrophils</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Bmp2</t>
-  </si>
-  <si>
-    <t>Acvr2a</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T37"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,10 +528,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.580074666666667</v>
+        <v>16.65673</v>
       </c>
       <c r="H2">
-        <v>7.740224000000001</v>
+        <v>49.97019</v>
       </c>
       <c r="I2">
-        <v>0.3568173349568206</v>
+        <v>0.83267636245756</v>
       </c>
       <c r="J2">
-        <v>0.3568173349568206</v>
+        <v>0.8326763624575599</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>10.90224333333333</v>
+        <v>11.651608</v>
       </c>
       <c r="N2">
-        <v>32.70673</v>
+        <v>34.954824</v>
       </c>
       <c r="O2">
-        <v>0.1536506229779223</v>
+        <v>0.1892813629236475</v>
       </c>
       <c r="P2">
-        <v>0.1536506229779223</v>
+        <v>0.1892813629236474</v>
       </c>
       <c r="Q2">
-        <v>28.12860183416889</v>
+        <v>194.07768852184</v>
       </c>
       <c r="R2">
-        <v>253.1574165075201</v>
+        <v>1746.69919669656</v>
       </c>
       <c r="S2">
-        <v>0.05482520580543745</v>
+        <v>0.1576101167602721</v>
       </c>
       <c r="T2">
-        <v>0.05482520580543745</v>
+        <v>0.157610116760272</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,10 +590,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.580074666666667</v>
+        <v>16.65673</v>
       </c>
       <c r="H3">
-        <v>7.740224000000001</v>
+        <v>49.97019</v>
       </c>
       <c r="I3">
-        <v>0.3568173349568206</v>
+        <v>0.83267636245756</v>
       </c>
       <c r="J3">
-        <v>0.3568173349568206</v>
+        <v>0.8326763624575599</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>81.613078</v>
       </c>
       <c r="O3">
-        <v>0.3834042803375869</v>
+        <v>0.4419371310876561</v>
       </c>
       <c r="P3">
-        <v>0.3834042803375869</v>
+        <v>0.4419371310876561</v>
       </c>
       <c r="Q3">
-        <v>70.18927833883023</v>
+        <v>453.1356682383133</v>
       </c>
       <c r="R3">
-        <v>631.7035050494721</v>
+        <v>4078.22101414482</v>
       </c>
       <c r="S3">
-        <v>0.1368052935210955</v>
+        <v>0.3679906027489994</v>
       </c>
       <c r="T3">
-        <v>0.1368052935210955</v>
+        <v>0.3679906027489993</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,10 +652,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.580074666666667</v>
+        <v>16.65673</v>
       </c>
       <c r="H4">
-        <v>7.740224000000001</v>
+        <v>49.97019</v>
       </c>
       <c r="I4">
-        <v>0.3568173349568206</v>
+        <v>0.83267636245756</v>
       </c>
       <c r="J4">
-        <v>0.3568173349568206</v>
+        <v>0.8326763624575599</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>5.916218000000001</v>
+        <v>8.657178999999999</v>
       </c>
       <c r="N4">
-        <v>17.748654</v>
+        <v>25.971537</v>
       </c>
       <c r="O4">
-        <v>0.08338014054353929</v>
+        <v>0.1406366091439035</v>
       </c>
       <c r="P4">
-        <v>0.08338014054353927</v>
+        <v>0.1406366091439035</v>
       </c>
       <c r="Q4">
-        <v>15.26428418427734</v>
+        <v>144.20029316467</v>
       </c>
       <c r="R4">
-        <v>137.378557658496</v>
+        <v>1297.80263848203</v>
       </c>
       <c r="S4">
-        <v>0.02975147953707084</v>
+        <v>0.1171047801303112</v>
       </c>
       <c r="T4">
-        <v>0.02975147953707083</v>
+        <v>0.1171047801303112</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,10 +714,10 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
         <v>23</v>
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.580074666666667</v>
+        <v>16.65673</v>
       </c>
       <c r="H5">
-        <v>7.740224000000001</v>
+        <v>49.97019</v>
       </c>
       <c r="I5">
-        <v>0.3568173349568206</v>
+        <v>0.83267636245756</v>
       </c>
       <c r="J5">
-        <v>0.3568173349568206</v>
+        <v>0.8326763624575599</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>16.981576</v>
+        <v>5.488499666666667</v>
       </c>
       <c r="N5">
-        <v>50.944728</v>
+        <v>16.465499</v>
       </c>
       <c r="O5">
-        <v>0.2393296179300346</v>
+        <v>0.08916114387925267</v>
       </c>
       <c r="P5">
-        <v>0.2393296179300346</v>
+        <v>0.08916114387925267</v>
       </c>
       <c r="Q5">
-        <v>43.81373403767467</v>
+        <v>91.42045705275666</v>
       </c>
       <c r="R5">
-        <v>394.3236063390721</v>
+        <v>822.7841134748101</v>
       </c>
       <c r="S5">
-        <v>0.08539695644602907</v>
+        <v>0.07424237695793126</v>
       </c>
       <c r="T5">
-        <v>0.08539695644602906</v>
+        <v>0.07424237695793125</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,14 +776,14 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>27</v>
       </c>
-      <c r="D6" t="s">
-        <v>24</v>
-      </c>
       <c r="E6">
         <v>3</v>
       </c>
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.580074666666667</v>
+        <v>16.65673</v>
       </c>
       <c r="H6">
-        <v>7.740224000000001</v>
+        <v>49.97019</v>
       </c>
       <c r="I6">
-        <v>0.3568173349568206</v>
+        <v>0.83267636245756</v>
       </c>
       <c r="J6">
-        <v>0.3568173349568206</v>
+        <v>0.8326763624575599</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.937401666666666</v>
+        <v>4.091608333333333</v>
       </c>
       <c r="N6">
-        <v>11.812205</v>
+        <v>12.274825</v>
       </c>
       <c r="O6">
-        <v>0.05549171858491902</v>
+        <v>0.06646852536431769</v>
       </c>
       <c r="P6">
-        <v>0.05549171858491901</v>
+        <v>0.06646852536431769</v>
       </c>
       <c r="Q6">
-        <v>10.15879029265778</v>
+        <v>68.15281527408334</v>
       </c>
       <c r="R6">
-        <v>91.42911263392</v>
+        <v>613.37533746675</v>
       </c>
       <c r="S6">
-        <v>0.01980040713764468</v>
+        <v>0.05534676991827812</v>
       </c>
       <c r="T6">
-        <v>0.01980040713764468</v>
+        <v>0.05534676991827811</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,13 +838,13 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>2.580074666666667</v>
+        <v>16.65673</v>
       </c>
       <c r="H7">
-        <v>7.740224000000001</v>
+        <v>49.97019</v>
       </c>
       <c r="I7">
-        <v>0.3568173349568206</v>
+        <v>0.83267636245756</v>
       </c>
       <c r="J7">
-        <v>0.3568173349568206</v>
+        <v>0.8326763624575599</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>6.012963333333334</v>
+        <v>4.463825666666667</v>
       </c>
       <c r="N7">
-        <v>18.03889</v>
+        <v>13.391477</v>
       </c>
       <c r="O7">
-        <v>0.08474361962599786</v>
+        <v>0.07251522760122259</v>
       </c>
       <c r="P7">
-        <v>0.08474361962599786</v>
+        <v>0.07251522760122257</v>
       </c>
       <c r="Q7">
-        <v>15.51389436792889</v>
+        <v>74.35273889673667</v>
       </c>
       <c r="R7">
-        <v>139.62504931136</v>
+        <v>669.17465007063</v>
       </c>
       <c r="S7">
-        <v>0.03023799250954307</v>
+        <v>0.06038171594176808</v>
       </c>
       <c r="T7">
-        <v>0.03023799250954307</v>
+        <v>0.06038171594176806</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,10 +900,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
@@ -921,10 +921,10 @@
         <v>5.355062</v>
       </c>
       <c r="I8">
-        <v>0.2468635211808523</v>
+        <v>0.08923387217248338</v>
       </c>
       <c r="J8">
-        <v>0.2468635211808523</v>
+        <v>0.08923387217248335</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>10.90224333333333</v>
+        <v>11.651608</v>
       </c>
       <c r="N8">
-        <v>32.70673</v>
+        <v>34.954824</v>
       </c>
       <c r="O8">
-        <v>0.1536506229779223</v>
+        <v>0.1892813629236475</v>
       </c>
       <c r="P8">
-        <v>0.1536506229779223</v>
+        <v>0.1892813629236474</v>
       </c>
       <c r="Q8">
-        <v>19.46072966302889</v>
+        <v>20.79836107989867</v>
       </c>
       <c r="R8">
-        <v>175.14656696726</v>
+        <v>187.185249719088</v>
       </c>
       <c r="S8">
-        <v>0.03793073381996147</v>
+        <v>0.01689030894376219</v>
       </c>
       <c r="T8">
-        <v>0.03793073381996147</v>
+        <v>0.01689030894376219</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,10 +962,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
@@ -983,10 +983,10 @@
         <v>5.355062</v>
       </c>
       <c r="I9">
-        <v>0.2468635211808523</v>
+        <v>0.08923387217248338</v>
       </c>
       <c r="J9">
-        <v>0.2468635211808523</v>
+        <v>0.08923387217248335</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>81.613078</v>
       </c>
       <c r="O9">
-        <v>0.3834042803375869</v>
+        <v>0.4419371310876561</v>
       </c>
       <c r="P9">
-        <v>0.3834042803375869</v>
+        <v>0.4419371310876561</v>
       </c>
       <c r="Q9">
         <v>48.56034363342623</v>
@@ -1013,10 +1013,10 @@
         <v>437.043092700836</v>
       </c>
       <c r="S9">
-        <v>0.09464853067994733</v>
+        <v>0.03943576146374993</v>
       </c>
       <c r="T9">
-        <v>0.09464853067994733</v>
+        <v>0.03943576146374992</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,10 +1024,10 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
         <v>22</v>
@@ -1045,10 +1045,10 @@
         <v>5.355062</v>
       </c>
       <c r="I10">
-        <v>0.2468635211808523</v>
+        <v>0.08923387217248338</v>
       </c>
       <c r="J10">
-        <v>0.2468635211808523</v>
+        <v>0.08923387217248335</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>5.916218000000001</v>
+        <v>8.657178999999999</v>
       </c>
       <c r="N10">
-        <v>17.748654</v>
+        <v>25.971537</v>
       </c>
       <c r="O10">
-        <v>0.08338014054353929</v>
+        <v>0.1406366091439035</v>
       </c>
       <c r="P10">
-        <v>0.08338014054353927</v>
+        <v>0.1406366091439035</v>
       </c>
       <c r="Q10">
-        <v>10.56057139850533</v>
+        <v>15.45324343003267</v>
       </c>
       <c r="R10">
-        <v>95.04514258654801</v>
+        <v>139.079190870294</v>
       </c>
       <c r="S10">
-        <v>0.02058351509113246</v>
+        <v>0.01254954920311859</v>
       </c>
       <c r="T10">
-        <v>0.02058351509113245</v>
+        <v>0.01254954920311859</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,10 +1086,10 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D11" t="s">
         <v>23</v>
@@ -1107,10 +1107,10 @@
         <v>5.355062</v>
       </c>
       <c r="I11">
-        <v>0.2468635211808523</v>
+        <v>0.08923387217248338</v>
       </c>
       <c r="J11">
-        <v>0.2468635211808523</v>
+        <v>0.08923387217248335</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>16.981576</v>
+        <v>5.488499666666667</v>
       </c>
       <c r="N11">
-        <v>50.944728</v>
+        <v>16.465499</v>
       </c>
       <c r="O11">
-        <v>0.2393296179300346</v>
+        <v>0.08916114387925267</v>
       </c>
       <c r="P11">
-        <v>0.2393296179300346</v>
+        <v>0.08916114387925267</v>
       </c>
       <c r="Q11">
-        <v>30.31246411257067</v>
+        <v>9.797085333993111</v>
       </c>
       <c r="R11">
-        <v>272.812177013136</v>
+        <v>88.17376800593802</v>
       </c>
       <c r="S11">
-        <v>0.0590817522050764</v>
+        <v>0.007956194115673632</v>
       </c>
       <c r="T11">
-        <v>0.05908175220507639</v>
+        <v>0.007956194115673628</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,13 +1148,13 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
         <v>27</v>
-      </c>
-      <c r="D12" t="s">
-        <v>24</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1169,10 +1169,10 @@
         <v>5.355062</v>
       </c>
       <c r="I12">
-        <v>0.2468635211808523</v>
+        <v>0.08923387217248338</v>
       </c>
       <c r="J12">
-        <v>0.2468635211808523</v>
+        <v>0.08923387217248335</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>3.937401666666666</v>
+        <v>4.091608333333333</v>
       </c>
       <c r="N12">
-        <v>11.812205</v>
+        <v>12.274825</v>
       </c>
       <c r="O12">
-        <v>0.05549171858491902</v>
+        <v>0.06646852536431769</v>
       </c>
       <c r="P12">
-        <v>0.05549171858491901</v>
+        <v>0.06646852536431769</v>
       </c>
       <c r="Q12">
-        <v>7.028343347967778</v>
+        <v>7.303605434905556</v>
       </c>
       <c r="R12">
-        <v>63.25509013171</v>
+        <v>65.73244891415</v>
       </c>
       <c r="S12">
-        <v>0.01369888104625005</v>
+        <v>0.005931243895852993</v>
       </c>
       <c r="T12">
-        <v>0.01369888104625005</v>
+        <v>0.005931243895852992</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,13 +1210,13 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1231,10 +1231,10 @@
         <v>5.355062</v>
       </c>
       <c r="I13">
-        <v>0.2468635211808523</v>
+        <v>0.08923387217248338</v>
       </c>
       <c r="J13">
-        <v>0.2468635211808523</v>
+        <v>0.08923387217248335</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>6.012963333333334</v>
+        <v>4.463825666666667</v>
       </c>
       <c r="N13">
-        <v>18.03889</v>
+        <v>13.391477</v>
       </c>
       <c r="O13">
-        <v>0.08474361962599786</v>
+        <v>0.07251522760122259</v>
       </c>
       <c r="P13">
-        <v>0.08474361962599786</v>
+        <v>0.07251522760122257</v>
       </c>
       <c r="Q13">
-        <v>10.73326381790889</v>
+        <v>7.968021067397112</v>
       </c>
       <c r="R13">
-        <v>96.59937436118001</v>
+        <v>71.712189606574</v>
       </c>
       <c r="S13">
-        <v>0.02092010833848462</v>
+        <v>0.006470814550326035</v>
       </c>
       <c r="T13">
-        <v>0.02092010833848462</v>
+        <v>0.006470814550326031</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,10 +1272,10 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
@@ -1287,16 +1287,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.06561933333333334</v>
+        <v>0.01434366666666667</v>
       </c>
       <c r="H14">
-        <v>0.196858</v>
+        <v>0.043031</v>
       </c>
       <c r="I14">
-        <v>0.009074975985828031</v>
+        <v>0.0007170454335457053</v>
       </c>
       <c r="J14">
-        <v>0.009074975985828031</v>
+        <v>0.0007170454335457052</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>10.90224333333333</v>
+        <v>11.651608</v>
       </c>
       <c r="N14">
-        <v>32.70673</v>
+        <v>34.954824</v>
       </c>
       <c r="O14">
-        <v>0.1536506229779223</v>
+        <v>0.1892813629236475</v>
       </c>
       <c r="P14">
-        <v>0.1536506229779223</v>
+        <v>0.1892813629236474</v>
       </c>
       <c r="Q14">
-        <v>0.7153979393711111</v>
+        <v>0.1671267812826667</v>
       </c>
       <c r="R14">
-        <v>6.43858145434</v>
+        <v>1.504141031544</v>
       </c>
       <c r="S14">
-        <v>0.001394375713732161</v>
+        <v>0.0001357233369397088</v>
       </c>
       <c r="T14">
-        <v>0.001394375713732161</v>
+        <v>0.0001357233369397087</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,10 +1334,10 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
@@ -1349,16 +1349,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.06561933333333334</v>
+        <v>0.01434366666666667</v>
       </c>
       <c r="H15">
-        <v>0.196858</v>
+        <v>0.043031</v>
       </c>
       <c r="I15">
-        <v>0.009074975985828031</v>
+        <v>0.0007170454335457053</v>
       </c>
       <c r="J15">
-        <v>0.009074975985828031</v>
+        <v>0.0007170454335457052</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>81.613078</v>
       </c>
       <c r="O15">
-        <v>0.3834042803375869</v>
+        <v>0.4419371310876561</v>
       </c>
       <c r="P15">
-        <v>0.3834042803375869</v>
+        <v>0.4419371310876561</v>
       </c>
       <c r="Q15">
-        <v>1.785131923213778</v>
+        <v>0.3902102621575556</v>
       </c>
       <c r="R15">
-        <v>16.066187308924</v>
+        <v>3.511892359418</v>
       </c>
       <c r="S15">
-        <v>0.003479384636927279</v>
+        <v>0.0003168890017606936</v>
       </c>
       <c r="T15">
-        <v>0.003479384636927279</v>
+        <v>0.0003168890017606935</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,10 +1396,10 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D16" t="s">
         <v>22</v>
@@ -1411,16 +1411,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.06561933333333334</v>
+        <v>0.01434366666666667</v>
       </c>
       <c r="H16">
-        <v>0.196858</v>
+        <v>0.043031</v>
       </c>
       <c r="I16">
-        <v>0.009074975985828031</v>
+        <v>0.0007170454335457053</v>
       </c>
       <c r="J16">
-        <v>0.009074975985828031</v>
+        <v>0.0007170454335457052</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>5.916218000000001</v>
+        <v>8.657178999999999</v>
       </c>
       <c r="N16">
-        <v>17.748654</v>
+        <v>25.971537</v>
       </c>
       <c r="O16">
-        <v>0.08338014054353929</v>
+        <v>0.1406366091439035</v>
       </c>
       <c r="P16">
-        <v>0.08338014054353927</v>
+        <v>0.1406366091439035</v>
       </c>
       <c r="Q16">
-        <v>0.3882182810146667</v>
+        <v>0.1241756898496666</v>
       </c>
       <c r="R16">
-        <v>3.493964529132001</v>
+        <v>1.117581208647</v>
       </c>
       <c r="S16">
-        <v>0.0007566727731275853</v>
+        <v>0.0001008428383759882</v>
       </c>
       <c r="T16">
-        <v>0.0007566727731275851</v>
+        <v>0.0001008428383759882</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,10 +1458,10 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
         <v>23</v>
@@ -1473,16 +1473,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>0.06561933333333334</v>
+        <v>0.01434366666666667</v>
       </c>
       <c r="H17">
-        <v>0.196858</v>
+        <v>0.043031</v>
       </c>
       <c r="I17">
-        <v>0.009074975985828031</v>
+        <v>0.0007170454335457053</v>
       </c>
       <c r="J17">
-        <v>0.009074975985828031</v>
+        <v>0.0007170454335457052</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>16.981576</v>
+        <v>5.488499666666667</v>
       </c>
       <c r="N17">
-        <v>50.944728</v>
+        <v>16.465499</v>
       </c>
       <c r="O17">
-        <v>0.2393296179300346</v>
+        <v>0.08916114387925267</v>
       </c>
       <c r="P17">
-        <v>0.2393296179300346</v>
+        <v>0.08916114387925267</v>
       </c>
       <c r="Q17">
-        <v>1.114319696069333</v>
+        <v>0.07872520971877778</v>
       </c>
       <c r="R17">
-        <v>10.028877264624</v>
+        <v>0.7085268874690001</v>
       </c>
       <c r="S17">
-        <v>0.002171910535412462</v>
+        <v>6.393259106832973E-05</v>
       </c>
       <c r="T17">
-        <v>0.002171910535412462</v>
+        <v>6.393259106832973E-05</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,13 +1520,13 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
         <v>27</v>
-      </c>
-      <c r="D18" t="s">
-        <v>24</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -1535,16 +1535,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G18">
-        <v>0.06561933333333334</v>
+        <v>0.01434366666666667</v>
       </c>
       <c r="H18">
-        <v>0.196858</v>
+        <v>0.043031</v>
       </c>
       <c r="I18">
-        <v>0.009074975985828031</v>
+        <v>0.0007170454335457053</v>
       </c>
       <c r="J18">
-        <v>0.009074975985828031</v>
+        <v>0.0007170454335457052</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>3.937401666666666</v>
+        <v>4.091608333333333</v>
       </c>
       <c r="N18">
-        <v>11.812205</v>
+        <v>12.274825</v>
       </c>
       <c r="O18">
-        <v>0.05549171858491902</v>
+        <v>0.06646852536431769</v>
       </c>
       <c r="P18">
-        <v>0.05549171858491901</v>
+        <v>0.06646852536431769</v>
       </c>
       <c r="Q18">
-        <v>0.2583696724322222</v>
+        <v>0.05868866606388889</v>
       </c>
       <c r="R18">
-        <v>2.32532705189</v>
+        <v>0.5281979945749999</v>
       </c>
       <c r="S18">
-        <v>0.0005035860135704671</v>
+        <v>4.766095258700089E-05</v>
       </c>
       <c r="T18">
-        <v>0.0005035860135704671</v>
+        <v>4.766095258700088E-05</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,13 +1582,13 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E19">
         <v>1</v>
@@ -1597,16 +1597,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G19">
-        <v>0.06561933333333334</v>
+        <v>0.01434366666666667</v>
       </c>
       <c r="H19">
-        <v>0.196858</v>
+        <v>0.043031</v>
       </c>
       <c r="I19">
-        <v>0.009074975985828031</v>
+        <v>0.0007170454335457053</v>
       </c>
       <c r="J19">
-        <v>0.009074975985828031</v>
+        <v>0.0007170454335457052</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>6.012963333333334</v>
+        <v>4.463825666666667</v>
       </c>
       <c r="N19">
-        <v>18.03889</v>
+        <v>13.391477</v>
       </c>
       <c r="O19">
-        <v>0.08474361962599786</v>
+        <v>0.07251522760122259</v>
       </c>
       <c r="P19">
-        <v>0.08474361962599786</v>
+        <v>0.07251522760122257</v>
       </c>
       <c r="Q19">
-        <v>0.3945666452911112</v>
+        <v>0.06402762742077778</v>
       </c>
       <c r="R19">
-        <v>3.55109980762</v>
+        <v>0.5762486467870001</v>
       </c>
       <c r="S19">
-        <v>0.0007690463130580756</v>
+        <v>5.199671281398415E-05</v>
       </c>
       <c r="T19">
-        <v>0.0007690463130580756</v>
+        <v>5.199671281398413E-05</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,10 +1644,10 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
         <v>20</v>
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>2.079636333333333</v>
+        <v>1.483811333333333</v>
       </c>
       <c r="H20">
-        <v>6.238909</v>
+        <v>4.451434</v>
       </c>
       <c r="I20">
-        <v>0.2876080695362463</v>
+        <v>0.07417630132764967</v>
       </c>
       <c r="J20">
-        <v>0.2876080695362463</v>
+        <v>0.07417630132764966</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>10.90224333333333</v>
+        <v>11.651608</v>
       </c>
       <c r="N20">
-        <v>32.70673</v>
+        <v>34.954824</v>
       </c>
       <c r="O20">
-        <v>0.1536506229779223</v>
+        <v>0.1892813629236475</v>
       </c>
       <c r="P20">
-        <v>0.1536506229779223</v>
+        <v>0.1892813629236474</v>
       </c>
       <c r="Q20">
-        <v>22.67270135084111</v>
+        <v>17.28878800195734</v>
       </c>
       <c r="R20">
-        <v>204.05431215757</v>
+        <v>155.599092017616</v>
       </c>
       <c r="S20">
-        <v>0.04419115905772183</v>
+        <v>0.01404019141193269</v>
       </c>
       <c r="T20">
-        <v>0.04419115905772183</v>
+        <v>0.01404019141193269</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,10 +1706,10 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C21" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D21" t="s">
         <v>21</v>
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>2.079636333333333</v>
+        <v>1.483811333333333</v>
       </c>
       <c r="H21">
-        <v>6.238909</v>
+        <v>4.451434</v>
       </c>
       <c r="I21">
-        <v>0.2876080695362463</v>
+        <v>0.07417630132764967</v>
       </c>
       <c r="J21">
-        <v>0.2876080695362463</v>
+        <v>0.07417630132764966</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>81.613078</v>
       </c>
       <c r="O21">
-        <v>0.3834042803375869</v>
+        <v>0.4419371310876561</v>
       </c>
       <c r="P21">
-        <v>0.3834042803375869</v>
+        <v>0.4419371310876561</v>
       </c>
       <c r="Q21">
-        <v>56.57517409465577</v>
+        <v>40.36613669487244</v>
       </c>
       <c r="R21">
-        <v>509.176566851902</v>
+        <v>363.295230253852</v>
       </c>
       <c r="S21">
-        <v>0.1102701649198272</v>
+        <v>0.03278126180343499</v>
       </c>
       <c r="T21">
-        <v>0.1102701649198272</v>
+        <v>0.03278126180343498</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1768,10 +1768,10 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C22" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D22" t="s">
         <v>22</v>
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>2.079636333333333</v>
+        <v>1.483811333333333</v>
       </c>
       <c r="H22">
-        <v>6.238909</v>
+        <v>4.451434</v>
       </c>
       <c r="I22">
-        <v>0.2876080695362463</v>
+        <v>0.07417630132764967</v>
       </c>
       <c r="J22">
-        <v>0.2876080695362463</v>
+        <v>0.07417630132764966</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>5.916218000000001</v>
+        <v>8.657178999999999</v>
       </c>
       <c r="N22">
-        <v>17.748654</v>
+        <v>25.971537</v>
       </c>
       <c r="O22">
-        <v>0.08338014054353929</v>
+        <v>0.1406366091439035</v>
       </c>
       <c r="P22">
-        <v>0.08338014054353927</v>
+        <v>0.1406366091439035</v>
       </c>
       <c r="Q22">
-        <v>12.30358190872067</v>
+        <v>12.84562031489533</v>
       </c>
       <c r="R22">
-        <v>110.732237178486</v>
+        <v>115.610582834058</v>
       </c>
       <c r="S22">
-        <v>0.02398080125938824</v>
+        <v>0.01043190349755708</v>
       </c>
       <c r="T22">
-        <v>0.02398080125938823</v>
+        <v>0.01043190349755707</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1830,10 +1830,10 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D23" t="s">
         <v>23</v>
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>2.079636333333333</v>
+        <v>1.483811333333333</v>
       </c>
       <c r="H23">
-        <v>6.238909</v>
+        <v>4.451434</v>
       </c>
       <c r="I23">
-        <v>0.2876080695362463</v>
+        <v>0.07417630132764967</v>
       </c>
       <c r="J23">
-        <v>0.2876080695362463</v>
+        <v>0.07417630132764966</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>16.981576</v>
+        <v>5.488499666666667</v>
       </c>
       <c r="N23">
-        <v>50.944728</v>
+        <v>16.465499</v>
       </c>
       <c r="O23">
-        <v>0.2393296179300346</v>
+        <v>0.08916114387925267</v>
       </c>
       <c r="P23">
-        <v>0.2393296179300346</v>
+        <v>0.08916114387925267</v>
       </c>
       <c r="Q23">
-        <v>35.31550244686133</v>
+        <v>8.143898008396222</v>
       </c>
       <c r="R23">
-        <v>317.839522021752</v>
+        <v>73.295082075566</v>
       </c>
       <c r="S23">
-        <v>0.06883312939570466</v>
+        <v>0.006613643875105373</v>
       </c>
       <c r="T23">
-        <v>0.06883312939570464</v>
+        <v>0.006613643875105372</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1892,14 +1892,14 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
         <v>27</v>
       </c>
-      <c r="D24" t="s">
-        <v>24</v>
-      </c>
       <c r="E24">
         <v>3</v>
       </c>
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>2.079636333333333</v>
+        <v>1.483811333333333</v>
       </c>
       <c r="H24">
-        <v>6.238909</v>
+        <v>4.451434</v>
       </c>
       <c r="I24">
-        <v>0.2876080695362463</v>
+        <v>0.07417630132764967</v>
       </c>
       <c r="J24">
-        <v>0.2876080695362463</v>
+        <v>0.07417630132764966</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>3.937401666666666</v>
+        <v>4.091608333333333</v>
       </c>
       <c r="N24">
-        <v>11.812205</v>
+        <v>12.274825</v>
       </c>
       <c r="O24">
-        <v>0.05549171858491902</v>
+        <v>0.06646852536431769</v>
       </c>
       <c r="P24">
-        <v>0.05549171858491901</v>
+        <v>0.06646852536431769</v>
       </c>
       <c r="Q24">
-        <v>8.18836356492722</v>
+        <v>6.071174816561111</v>
       </c>
       <c r="R24">
-        <v>73.69527208434499</v>
+        <v>54.64057334905</v>
       </c>
       <c r="S24">
-        <v>0.0159598660574572</v>
+        <v>0.004930389366228154</v>
       </c>
       <c r="T24">
-        <v>0.0159598660574572</v>
+        <v>0.004930389366228153</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1954,13 +1954,13 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C25" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E25">
         <v>3</v>
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>2.079636333333333</v>
+        <v>1.483811333333333</v>
       </c>
       <c r="H25">
-        <v>6.238909</v>
+        <v>4.451434</v>
       </c>
       <c r="I25">
-        <v>0.2876080695362463</v>
+        <v>0.07417630132764967</v>
       </c>
       <c r="J25">
-        <v>0.2876080695362463</v>
+        <v>0.07417630132764966</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>6.012963333333334</v>
+        <v>4.463825666666667</v>
       </c>
       <c r="N25">
-        <v>18.03889</v>
+        <v>13.391477</v>
       </c>
       <c r="O25">
-        <v>0.08474361962599786</v>
+        <v>0.07251522760122259</v>
       </c>
       <c r="P25">
-        <v>0.08474361962599786</v>
+        <v>0.07251522760122257</v>
       </c>
       <c r="Q25">
-        <v>12.50477701900111</v>
+        <v>6.623475114224222</v>
       </c>
       <c r="R25">
-        <v>112.54299317101</v>
+        <v>59.611276028018</v>
       </c>
       <c r="S25">
-        <v>0.0243729488461472</v>
+        <v>0.005378911373391385</v>
       </c>
       <c r="T25">
-        <v>0.0243729488461472</v>
+        <v>0.005378911373391383</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2016,10 +2016,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C26" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D26" t="s">
         <v>20</v>
@@ -2031,16 +2031,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G26">
-        <v>0.06028266666666667</v>
+        <v>0.06394066666666666</v>
       </c>
       <c r="H26">
-        <v>0.180848</v>
+        <v>0.191822</v>
       </c>
       <c r="I26">
-        <v>0.008336929447038108</v>
+        <v>0.003196418608761225</v>
       </c>
       <c r="J26">
-        <v>0.008336929447038108</v>
+        <v>0.003196418608761225</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>10.90224333333333</v>
+        <v>11.651608</v>
       </c>
       <c r="N26">
-        <v>32.70673</v>
+        <v>34.954824</v>
       </c>
       <c r="O26">
-        <v>0.1536506229779223</v>
+        <v>0.1892813629236475</v>
       </c>
       <c r="P26">
-        <v>0.1536506229779223</v>
+        <v>0.1892813629236474</v>
       </c>
       <c r="Q26">
-        <v>0.6572163007822223</v>
+        <v>0.7450115832586667</v>
       </c>
       <c r="R26">
-        <v>5.91494670704</v>
+        <v>6.705104249328</v>
       </c>
       <c r="S26">
-        <v>0.00128097440326039</v>
+        <v>0.0006050224707408338</v>
       </c>
       <c r="T26">
-        <v>0.00128097440326039</v>
+        <v>0.0006050224707408336</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2078,10 +2078,10 @@
         <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C27" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D27" t="s">
         <v>21</v>
@@ -2093,16 +2093,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G27">
-        <v>0.06028266666666667</v>
+        <v>0.06394066666666666</v>
       </c>
       <c r="H27">
-        <v>0.180848</v>
+        <v>0.191822</v>
       </c>
       <c r="I27">
-        <v>0.008336929447038108</v>
+        <v>0.003196418608761225</v>
       </c>
       <c r="J27">
-        <v>0.008336929447038108</v>
+        <v>0.003196418608761225</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>81.613078</v>
       </c>
       <c r="O27">
-        <v>0.3834042803375869</v>
+        <v>0.4419371310876561</v>
       </c>
       <c r="P27">
-        <v>0.3834042803375869</v>
+        <v>0.4419371310876561</v>
       </c>
       <c r="Q27">
-        <v>1.639951325571556</v>
+        <v>1.739464872012889</v>
       </c>
       <c r="R27">
-        <v>14.759561930144</v>
+        <v>15.655183848116</v>
       </c>
       <c r="S27">
-        <v>0.003196414434866882</v>
+        <v>0.001412616069711133</v>
       </c>
       <c r="T27">
-        <v>0.003196414434866882</v>
+        <v>0.001412616069711132</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2140,10 +2140,10 @@
         <v>24</v>
       </c>
       <c r="B28" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C28" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D28" t="s">
         <v>22</v>
@@ -2155,16 +2155,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G28">
-        <v>0.06028266666666667</v>
+        <v>0.06394066666666666</v>
       </c>
       <c r="H28">
-        <v>0.180848</v>
+        <v>0.191822</v>
       </c>
       <c r="I28">
-        <v>0.008336929447038108</v>
+        <v>0.003196418608761225</v>
       </c>
       <c r="J28">
-        <v>0.008336929447038108</v>
+        <v>0.003196418608761225</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>5.916218000000001</v>
+        <v>8.657178999999999</v>
       </c>
       <c r="N28">
-        <v>17.748654</v>
+        <v>25.971537</v>
       </c>
       <c r="O28">
-        <v>0.08338014054353929</v>
+        <v>0.1406366091439035</v>
       </c>
       <c r="P28">
-        <v>0.08338014054353927</v>
+        <v>0.1406366091439035</v>
       </c>
       <c r="Q28">
-        <v>0.3566453976213334</v>
+        <v>0.5535457967126666</v>
       </c>
       <c r="R28">
-        <v>3.209808578592</v>
+        <v>4.981912170414</v>
       </c>
       <c r="S28">
-        <v>0.0006951343489956087</v>
+        <v>0.0004495334745406522</v>
       </c>
       <c r="T28">
-        <v>0.0006951343489956086</v>
+        <v>0.0004495334745406521</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2202,10 +2202,10 @@
         <v>24</v>
       </c>
       <c r="B29" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C29" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D29" t="s">
         <v>23</v>
@@ -2217,16 +2217,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G29">
-        <v>0.06028266666666667</v>
+        <v>0.06394066666666666</v>
       </c>
       <c r="H29">
-        <v>0.180848</v>
+        <v>0.191822</v>
       </c>
       <c r="I29">
-        <v>0.008336929447038108</v>
+        <v>0.003196418608761225</v>
       </c>
       <c r="J29">
-        <v>0.008336929447038108</v>
+        <v>0.003196418608761225</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>16.981576</v>
+        <v>5.488499666666667</v>
       </c>
       <c r="N29">
-        <v>50.944728</v>
+        <v>16.465499</v>
       </c>
       <c r="O29">
-        <v>0.2393296179300346</v>
+        <v>0.08916114387925267</v>
       </c>
       <c r="P29">
-        <v>0.2393296179300346</v>
+        <v>0.08916114387925267</v>
       </c>
       <c r="Q29">
-        <v>1.023694685482667</v>
+        <v>0.3509383276864444</v>
       </c>
       <c r="R29">
-        <v>9.213252169344001</v>
+        <v>3.158444949178</v>
       </c>
       <c r="S29">
-        <v>0.001995274139269285</v>
+        <v>0.0002849963394740802</v>
       </c>
       <c r="T29">
-        <v>0.001995274139269285</v>
+        <v>0.0002849963394740802</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2264,13 +2264,13 @@
         <v>24</v>
       </c>
       <c r="B30" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C30" t="s">
+        <v>26</v>
+      </c>
+      <c r="D30" t="s">
         <v>27</v>
-      </c>
-      <c r="D30" t="s">
-        <v>24</v>
       </c>
       <c r="E30">
         <v>1</v>
@@ -2279,16 +2279,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G30">
-        <v>0.06028266666666667</v>
+        <v>0.06394066666666666</v>
       </c>
       <c r="H30">
-        <v>0.180848</v>
+        <v>0.191822</v>
       </c>
       <c r="I30">
-        <v>0.008336929447038108</v>
+        <v>0.003196418608761225</v>
       </c>
       <c r="J30">
-        <v>0.008336929447038108</v>
+        <v>0.003196418608761225</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>3.937401666666666</v>
+        <v>4.091608333333333</v>
       </c>
       <c r="N30">
-        <v>11.812205</v>
+        <v>12.274825</v>
       </c>
       <c r="O30">
-        <v>0.05549171858491902</v>
+        <v>0.06646852536431769</v>
       </c>
       <c r="P30">
-        <v>0.05549171858491901</v>
+        <v>0.06646852536431769</v>
       </c>
       <c r="Q30">
-        <v>0.2373570722044444</v>
+        <v>0.2616201645722222</v>
       </c>
       <c r="R30">
-        <v>2.13621364984</v>
+        <v>2.35458148115</v>
       </c>
       <c r="S30">
-        <v>0.0004626305427373632</v>
+        <v>0.0002124612313714225</v>
       </c>
       <c r="T30">
-        <v>0.0004626305427373631</v>
+        <v>0.0002124612313714225</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2326,13 +2326,13 @@
         <v>24</v>
       </c>
       <c r="B31" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C31" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D31" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E31">
         <v>1</v>
@@ -2341,16 +2341,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G31">
-        <v>0.06028266666666667</v>
+        <v>0.06394066666666666</v>
       </c>
       <c r="H31">
-        <v>0.180848</v>
+        <v>0.191822</v>
       </c>
       <c r="I31">
-        <v>0.008336929447038108</v>
+        <v>0.003196418608761225</v>
       </c>
       <c r="J31">
-        <v>0.008336929447038108</v>
+        <v>0.003196418608761225</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,400 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>6.012963333333334</v>
+        <v>4.463825666666667</v>
       </c>
       <c r="N31">
-        <v>18.03889</v>
+        <v>13.391477</v>
       </c>
       <c r="O31">
-        <v>0.08474361962599786</v>
+        <v>0.07251522760122259</v>
       </c>
       <c r="P31">
-        <v>0.08474361962599786</v>
+        <v>0.07251522760122257</v>
       </c>
       <c r="Q31">
-        <v>0.3624774643022223</v>
+        <v>0.2854199890104444</v>
       </c>
       <c r="R31">
-        <v>3.26229717872</v>
+        <v>2.568779901094</v>
       </c>
       <c r="S31">
-        <v>0.0007065015779085781</v>
+        <v>0.0002317890229231035</v>
       </c>
       <c r="T31">
-        <v>0.0007065015779085781</v>
-      </c>
-    </row>
-    <row r="32" spans="1:20">
-      <c r="A32" t="s">
-        <v>25</v>
-      </c>
-      <c r="B32" t="s">
-        <v>26</v>
-      </c>
-      <c r="C32" t="s">
-        <v>27</v>
-      </c>
-      <c r="D32" t="s">
-        <v>20</v>
-      </c>
-      <c r="E32">
-        <v>1</v>
-      </c>
-      <c r="F32">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G32">
-        <v>0.6601659999999999</v>
-      </c>
-      <c r="H32">
-        <v>1.980498</v>
-      </c>
-      <c r="I32">
-        <v>0.09129916889321461</v>
-      </c>
-      <c r="J32">
-        <v>0.09129916889321461</v>
-      </c>
-      <c r="K32">
-        <v>3</v>
-      </c>
-      <c r="L32">
-        <v>1</v>
-      </c>
-      <c r="M32">
-        <v>10.90224333333333</v>
-      </c>
-      <c r="N32">
-        <v>32.70673</v>
-      </c>
-      <c r="O32">
-        <v>0.1536506229779223</v>
-      </c>
-      <c r="P32">
-        <v>0.1536506229779223</v>
-      </c>
-      <c r="Q32">
-        <v>7.197290372393332</v>
-      </c>
-      <c r="R32">
-        <v>64.77561335154</v>
-      </c>
-      <c r="S32">
-        <v>0.01402817417780897</v>
-      </c>
-      <c r="T32">
-        <v>0.01402817417780897</v>
-      </c>
-    </row>
-    <row r="33" spans="1:20">
-      <c r="A33" t="s">
-        <v>25</v>
-      </c>
-      <c r="B33" t="s">
-        <v>26</v>
-      </c>
-      <c r="C33" t="s">
-        <v>27</v>
-      </c>
-      <c r="D33" t="s">
-        <v>21</v>
-      </c>
-      <c r="E33">
-        <v>1</v>
-      </c>
-      <c r="F33">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G33">
-        <v>0.6601659999999999</v>
-      </c>
-      <c r="H33">
-        <v>1.980498</v>
-      </c>
-      <c r="I33">
-        <v>0.09129916889321461</v>
-      </c>
-      <c r="J33">
-        <v>0.09129916889321461</v>
-      </c>
-      <c r="K33">
-        <v>3</v>
-      </c>
-      <c r="L33">
-        <v>1</v>
-      </c>
-      <c r="M33">
-        <v>27.20435933333333</v>
-      </c>
-      <c r="N33">
-        <v>81.613078</v>
-      </c>
-      <c r="O33">
-        <v>0.3834042803375869</v>
-      </c>
-      <c r="P33">
-        <v>0.3834042803375869</v>
-      </c>
-      <c r="Q33">
-        <v>17.95939308364933</v>
-      </c>
-      <c r="R33">
-        <v>161.634537752844</v>
-      </c>
-      <c r="S33">
-        <v>0.03500449214492275</v>
-      </c>
-      <c r="T33">
-        <v>0.03500449214492275</v>
-      </c>
-    </row>
-    <row r="34" spans="1:20">
-      <c r="A34" t="s">
-        <v>25</v>
-      </c>
-      <c r="B34" t="s">
-        <v>26</v>
-      </c>
-      <c r="C34" t="s">
-        <v>27</v>
-      </c>
-      <c r="D34" t="s">
-        <v>22</v>
-      </c>
-      <c r="E34">
-        <v>1</v>
-      </c>
-      <c r="F34">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G34">
-        <v>0.6601659999999999</v>
-      </c>
-      <c r="H34">
-        <v>1.980498</v>
-      </c>
-      <c r="I34">
-        <v>0.09129916889321461</v>
-      </c>
-      <c r="J34">
-        <v>0.09129916889321461</v>
-      </c>
-      <c r="K34">
-        <v>3</v>
-      </c>
-      <c r="L34">
-        <v>1</v>
-      </c>
-      <c r="M34">
-        <v>5.916218000000001</v>
-      </c>
-      <c r="N34">
-        <v>17.748654</v>
-      </c>
-      <c r="O34">
-        <v>0.08338014054353929</v>
-      </c>
-      <c r="P34">
-        <v>0.08338014054353927</v>
-      </c>
-      <c r="Q34">
-        <v>3.905685972188</v>
-      </c>
-      <c r="R34">
-        <v>35.151173749692</v>
-      </c>
-      <c r="S34">
-        <v>0.007612537533824565</v>
-      </c>
-      <c r="T34">
-        <v>0.007612537533824563</v>
-      </c>
-    </row>
-    <row r="35" spans="1:20">
-      <c r="A35" t="s">
-        <v>25</v>
-      </c>
-      <c r="B35" t="s">
-        <v>26</v>
-      </c>
-      <c r="C35" t="s">
-        <v>27</v>
-      </c>
-      <c r="D35" t="s">
-        <v>23</v>
-      </c>
-      <c r="E35">
-        <v>1</v>
-      </c>
-      <c r="F35">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G35">
-        <v>0.6601659999999999</v>
-      </c>
-      <c r="H35">
-        <v>1.980498</v>
-      </c>
-      <c r="I35">
-        <v>0.09129916889321461</v>
-      </c>
-      <c r="J35">
-        <v>0.09129916889321461</v>
-      </c>
-      <c r="K35">
-        <v>3</v>
-      </c>
-      <c r="L35">
-        <v>1</v>
-      </c>
-      <c r="M35">
-        <v>16.981576</v>
-      </c>
-      <c r="N35">
-        <v>50.944728</v>
-      </c>
-      <c r="O35">
-        <v>0.2393296179300346</v>
-      </c>
-      <c r="P35">
-        <v>0.2393296179300346</v>
-      </c>
-      <c r="Q35">
-        <v>11.210659101616</v>
-      </c>
-      <c r="R35">
-        <v>100.895931914544</v>
-      </c>
-      <c r="S35">
-        <v>0.02185059520854276</v>
-      </c>
-      <c r="T35">
-        <v>0.02185059520854275</v>
-      </c>
-    </row>
-    <row r="36" spans="1:20">
-      <c r="A36" t="s">
-        <v>25</v>
-      </c>
-      <c r="B36" t="s">
-        <v>26</v>
-      </c>
-      <c r="C36" t="s">
-        <v>27</v>
-      </c>
-      <c r="D36" t="s">
-        <v>24</v>
-      </c>
-      <c r="E36">
-        <v>1</v>
-      </c>
-      <c r="F36">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G36">
-        <v>0.6601659999999999</v>
-      </c>
-      <c r="H36">
-        <v>1.980498</v>
-      </c>
-      <c r="I36">
-        <v>0.09129916889321461</v>
-      </c>
-      <c r="J36">
-        <v>0.09129916889321461</v>
-      </c>
-      <c r="K36">
-        <v>3</v>
-      </c>
-      <c r="L36">
-        <v>1</v>
-      </c>
-      <c r="M36">
-        <v>3.937401666666666</v>
-      </c>
-      <c r="N36">
-        <v>11.812205</v>
-      </c>
-      <c r="O36">
-        <v>0.05549171858491902</v>
-      </c>
-      <c r="P36">
-        <v>0.05549171858491901</v>
-      </c>
-      <c r="Q36">
-        <v>2.599338708676666</v>
-      </c>
-      <c r="R36">
-        <v>23.39404837808999</v>
-      </c>
-      <c r="S36">
-        <v>0.005066347787259257</v>
-      </c>
-      <c r="T36">
-        <v>0.005066347787259257</v>
-      </c>
-    </row>
-    <row r="37" spans="1:20">
-      <c r="A37" t="s">
-        <v>25</v>
-      </c>
-      <c r="B37" t="s">
-        <v>26</v>
-      </c>
-      <c r="C37" t="s">
-        <v>27</v>
-      </c>
-      <c r="D37" t="s">
-        <v>25</v>
-      </c>
-      <c r="E37">
-        <v>1</v>
-      </c>
-      <c r="F37">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G37">
-        <v>0.6601659999999999</v>
-      </c>
-      <c r="H37">
-        <v>1.980498</v>
-      </c>
-      <c r="I37">
-        <v>0.09129916889321461</v>
-      </c>
-      <c r="J37">
-        <v>0.09129916889321461</v>
-      </c>
-      <c r="K37">
-        <v>3</v>
-      </c>
-      <c r="L37">
-        <v>1</v>
-      </c>
-      <c r="M37">
-        <v>6.012963333333334</v>
-      </c>
-      <c r="N37">
-        <v>18.03889</v>
-      </c>
-      <c r="O37">
-        <v>0.08474361962599786</v>
-      </c>
-      <c r="P37">
-        <v>0.08474361962599786</v>
-      </c>
-      <c r="Q37">
-        <v>3.969553951913333</v>
-      </c>
-      <c r="R37">
-        <v>35.72598556722</v>
-      </c>
-      <c r="S37">
-        <v>0.007737022040856315</v>
-      </c>
-      <c r="T37">
-        <v>0.007737022040856315</v>
+        <v>0.0002317890229231034</v>
       </c>
     </row>
   </sheetData>
